--- a/Data/axarenoutput.xlsx
+++ b/Data/axarenoutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="93">
   <si>
     <t>Source_of_Business</t>
   </si>
@@ -40,7 +40,7 @@
     <t>All_Risks_Unspecified_SI</t>
   </si>
   <si>
-    <t>Standarad_Of_Construction</t>
+    <t>Standard_Of_Construction</t>
   </si>
   <si>
     <t>Year_Built</t>
@@ -124,139 +124,175 @@
     <t>CO</t>
   </si>
   <si>
-    <t>BO</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Non Standard 15%</t>
+  </si>
+  <si>
+    <t>Non Standard 20%</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Aviva</t>
   </si>
   <si>
-    <t>Liberty Ireland</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
-    <t>D24 RH79</t>
-  </si>
-  <si>
-    <t>D22 X5H0</t>
-  </si>
-  <si>
-    <t>T12 K6DV</t>
-  </si>
-  <si>
-    <t>W23 RH45</t>
-  </si>
-  <si>
-    <t>W91 P5DE</t>
-  </si>
-  <si>
-    <t>D14 E8N2</t>
-  </si>
-  <si>
-    <t>A92 RD35</t>
-  </si>
-  <si>
-    <t>D6W RC98</t>
-  </si>
-  <si>
-    <t>F23 AY90</t>
-  </si>
-  <si>
-    <t>D15 NAC1</t>
-  </si>
-  <si>
-    <t>D05 W180</t>
-  </si>
-  <si>
-    <t>A92 V8EF</t>
-  </si>
-  <si>
-    <t>R14 A275</t>
-  </si>
-  <si>
-    <t>D15 EFK8</t>
-  </si>
-  <si>
-    <t>D13 TW59</t>
-  </si>
-  <si>
-    <t>H91 FY0A</t>
-  </si>
-  <si>
-    <t>Y21 W1W0</t>
-  </si>
-  <si>
-    <t>K34 EY79</t>
-  </si>
-  <si>
-    <t>D18 E2W4</t>
-  </si>
-  <si>
-    <t>D11 H026</t>
-  </si>
-  <si>
-    <t>D16 VW61</t>
-  </si>
-  <si>
-    <t>H91 FWE1</t>
-  </si>
-  <si>
-    <t>P25 V446</t>
-  </si>
-  <si>
-    <t>D15 NW98</t>
-  </si>
-  <si>
-    <t>D14 HF50</t>
-  </si>
-  <si>
-    <t>D05 C8E8</t>
-  </si>
-  <si>
-    <t>K34 X447</t>
-  </si>
-  <si>
-    <t>K78 D791</t>
-  </si>
-  <si>
-    <t>D05 F3F2</t>
-  </si>
-  <si>
-    <t>K36 FN25</t>
-  </si>
-  <si>
-    <t>D04 C568</t>
-  </si>
-  <si>
-    <t>D03 HN47</t>
-  </si>
-  <si>
-    <t>T12 H7P4</t>
-  </si>
-  <si>
-    <t>T12 CDE7</t>
-  </si>
-  <si>
-    <t>D06 H6P0</t>
-  </si>
-  <si>
-    <t>N91 TH26</t>
-  </si>
-  <si>
-    <t>P31 VP76</t>
-  </si>
-  <si>
-    <t>H53 PW10</t>
+    <t>C15 N5WP</t>
+  </si>
+  <si>
+    <t>D24 X4HK</t>
+  </si>
+  <si>
+    <t>A94 WK68</t>
+  </si>
+  <si>
+    <t>D08 FT80</t>
+  </si>
+  <si>
+    <t>D11 RT1H</t>
+  </si>
+  <si>
+    <t>Y21 F7P6</t>
+  </si>
+  <si>
+    <t>D18 F389</t>
+  </si>
+  <si>
+    <t>H18 N960</t>
+  </si>
+  <si>
+    <t>E45 XA99</t>
+  </si>
+  <si>
+    <t>D15 KR9X</t>
+  </si>
+  <si>
+    <t>D15 XYH9</t>
+  </si>
+  <si>
+    <t>R93 DA09</t>
+  </si>
+  <si>
+    <t>D16 X253</t>
+  </si>
+  <si>
+    <t>D24 RD2P</t>
+  </si>
+  <si>
+    <t>X42 RP40</t>
+  </si>
+  <si>
+    <t>H62 F243</t>
+  </si>
+  <si>
+    <t>V94 DN82</t>
+  </si>
+  <si>
+    <t>Y14 RX90</t>
+  </si>
+  <si>
+    <t>P67 E838</t>
+  </si>
+  <si>
+    <t>W23 T4A4</t>
+  </si>
+  <si>
+    <t>D15 N6WV</t>
+  </si>
+  <si>
+    <t>A94 WT38</t>
+  </si>
+  <si>
+    <t>D18 RW32</t>
+  </si>
+  <si>
+    <t>T12 EYA7</t>
+  </si>
+  <si>
+    <t>W91 VR6Y</t>
+  </si>
+  <si>
+    <t>A63 D348</t>
+  </si>
+  <si>
+    <t>D08 CP80</t>
+  </si>
+  <si>
+    <t>K78 P5X6</t>
+  </si>
+  <si>
+    <t>R51 CX74</t>
+  </si>
+  <si>
+    <t>N37 K297</t>
+  </si>
+  <si>
+    <t>D16 TX66</t>
+  </si>
+  <si>
+    <t>K34 K250</t>
+  </si>
+  <si>
+    <t>D24 X7K7</t>
+  </si>
+  <si>
+    <t>D06 P6C0</t>
+  </si>
+  <si>
+    <t>R93 V3A0</t>
+  </si>
+  <si>
+    <t>D03 W962</t>
+  </si>
+  <si>
+    <t>D04 C3K0</t>
+  </si>
+  <si>
+    <t>D16 Y054</t>
+  </si>
+  <si>
+    <t>D04 HC62</t>
+  </si>
+  <si>
+    <t>W91 P6V0</t>
+  </si>
+  <si>
+    <t>A63 HV00</t>
+  </si>
+  <si>
+    <t>V94 AD8F</t>
+  </si>
+  <si>
+    <t>D05 FR84</t>
+  </si>
+  <si>
+    <t>D07 H6R6</t>
+  </si>
+  <si>
+    <t>D6W W589</t>
+  </si>
+  <si>
+    <t>D05 DW99</t>
+  </si>
+  <si>
+    <t>A67 VW98</t>
+  </si>
+  <si>
+    <t>D03 EK53</t>
+  </si>
+  <si>
+    <t>T23 W5F6</t>
+  </si>
+  <si>
+    <t>X91 FC9V</t>
   </si>
 </sst>
 </file>
@@ -614,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,37 +762,49 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>300000</v>
+        <v>195000</v>
       </c>
       <c r="F2">
-        <v>40000</v>
+        <v>39000</v>
+      </c>
+      <c r="G2">
+        <v>6500</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>1968</v>
+        <v>2005</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -782,40 +830,43 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>192086</v>
+        <v>285000</v>
       </c>
       <c r="F3">
-        <v>38417</v>
+        <v>40000</v>
       </c>
       <c r="G3">
-        <v>2300</v>
+        <v>6689</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
       <c r="J3">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -853,37 +904,49 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>375000</v>
+        <v>400000</v>
       </c>
       <c r="F4">
-        <v>40000</v>
+        <v>80000</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4510</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
         <v>32</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -912,37 +975,49 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>30000</v>
       </c>
+      <c r="G5">
+        <v>1700</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
       <c r="J5">
-        <v>1980</v>
+        <v>2004</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5">
-        <v>150</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
+      <c r="S5">
+        <v>999</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -968,49 +1043,64 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="F6">
-        <v>60000</v>
+        <v>75000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9375</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
       </c>
       <c r="J6">
         <v>1998</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
         <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1024,46 +1114,49 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="F7">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="G7">
-        <v>21000</v>
+        <v>2500</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
       <c r="J7">
-        <v>1980</v>
+        <v>2006</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1078,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1092,34 +1185,43 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>35000</v>
+        <v>65000</v>
+      </c>
+      <c r="G8">
+        <v>7760</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
       </c>
       <c r="J8">
-        <v>1970</v>
+        <v>2004</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1127,17 +1229,20 @@
       <c r="R8" t="s">
         <v>32</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1151,34 +1256,43 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="F9">
         <v>40000</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5600</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
       <c r="J9">
-        <v>1930</v>
+        <v>2004</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1186,6 +1300,9 @@
       <c r="R9" t="s">
         <v>32</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
       <c r="T9" t="s">
         <v>32</v>
       </c>
@@ -1196,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1213,37 +1330,49 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="F10">
-        <v>40000</v>
+        <v>45000</v>
+      </c>
+      <c r="G10">
+        <v>14000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
       </c>
       <c r="J10">
-        <v>1964</v>
+        <v>2010</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -1255,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1272,31 +1401,40 @@
         <v>33</v>
       </c>
       <c r="E11">
-        <v>264448</v>
+        <v>216000</v>
       </c>
       <c r="F11">
-        <v>61706</v>
+        <v>50000</v>
+      </c>
+      <c r="G11">
+        <v>6200</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
       </c>
       <c r="J11">
-        <v>1965</v>
+        <v>1996</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1304,6 +1442,9 @@
       <c r="R11" t="s">
         <v>32</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="T11" t="s">
         <v>32</v>
       </c>
@@ -1312,6 +1453,9 @@
       </c>
       <c r="V11">
         <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1328,37 +1472,40 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>580000</v>
+        <v>330000</v>
       </c>
       <c r="F12">
-        <v>72000</v>
+        <v>55000</v>
       </c>
       <c r="G12">
-        <v>14370</v>
+        <v>11500</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
       <c r="J12">
-        <v>2009</v>
+        <v>1955</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1377,6 +1524,9 @@
       </c>
       <c r="V12">
         <v>0</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1393,31 +1543,40 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>200000</v>
+        <v>317000</v>
       </c>
       <c r="F13">
-        <v>50000</v>
+        <v>30000</v>
+      </c>
+      <c r="G13">
+        <v>3500</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
       </c>
       <c r="J13">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1425,6 +1584,9 @@
       <c r="R13" t="s">
         <v>32</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
       <c r="T13" t="s">
         <v>32</v>
       </c>
@@ -1435,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1452,40 +1614,43 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="F14">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G14">
-        <v>3100</v>
+        <v>300</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
       <c r="J14">
-        <v>2006</v>
+        <v>1980</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q14">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
         <v>32</v>
@@ -1501,6 +1666,9 @@
       </c>
       <c r="V14">
         <v>0</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1514,34 +1682,43 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="F15">
-        <v>200000</v>
+        <v>80000</v>
+      </c>
+      <c r="G15">
+        <v>20000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
       </c>
       <c r="J15">
-        <v>1975</v>
+        <v>2020</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1549,6 +1726,9 @@
       <c r="R15" t="s">
         <v>32</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
       <c r="T15" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1576,49 +1756,61 @@
         <v>33</v>
       </c>
       <c r="E16">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="F16">
-        <v>40000</v>
+        <v>80000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
       </c>
       <c r="J16">
-        <v>1950</v>
+        <v>2016</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>57</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1632,40 +1824,52 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>160000</v>
       </c>
       <c r="F17">
-        <v>30000</v>
+        <v>15000</v>
+      </c>
+      <c r="G17">
+        <v>2500</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
       </c>
       <c r="J17">
-        <v>1930</v>
+        <v>2006</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
       </c>
       <c r="T17" t="s">
         <v>32</v>
@@ -1677,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -1694,31 +1898,40 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="F18">
-        <v>69000</v>
+        <v>40000</v>
+      </c>
+      <c r="G18">
+        <v>2900</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
       </c>
       <c r="J18">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1726,6 +1939,9 @@
       <c r="R18" t="s">
         <v>32</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
       <c r="T18" t="s">
         <v>32</v>
       </c>
@@ -1736,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -1750,13 +1966,22 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>265000</v>
       </c>
       <c r="F19">
-        <v>23000</v>
+        <v>20000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1400</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
       </c>
       <c r="J19">
         <v>2005</v>
@@ -1765,19 +1990,19 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1785,6 +2010,9 @@
       <c r="R19" t="s">
         <v>32</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
       <c r="T19" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -1812,40 +2040,43 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>323951</v>
+        <v>409100</v>
       </c>
       <c r="F20">
-        <v>46279</v>
+        <v>30000</v>
       </c>
       <c r="G20">
-        <v>4478</v>
+        <v>6500</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
       <c r="J20">
-        <v>1971</v>
+        <v>2018</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R20" t="s">
         <v>32</v>
@@ -1863,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -1880,31 +2111,40 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="F21">
-        <v>40000</v>
+        <v>50000</v>
+      </c>
+      <c r="G21">
+        <v>4000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
       </c>
       <c r="J21">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1912,6 +2152,9 @@
       <c r="R21" t="s">
         <v>32</v>
       </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
       <c r="T21" t="s">
         <v>32</v>
       </c>
@@ -1920,6 +2163,9 @@
       </c>
       <c r="V21">
         <v>0</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -1933,34 +2179,43 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>850000</v>
+        <v>270000</v>
       </c>
       <c r="F22">
-        <v>100000</v>
+        <v>54000</v>
+      </c>
+      <c r="G22">
+        <v>3000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
       </c>
       <c r="J22">
-        <v>2009</v>
+        <v>1975</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O22" t="s">
         <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1968,6 +2223,9 @@
       <c r="R22" t="s">
         <v>32</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
       <c r="T22" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -1992,34 +2250,43 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>300000</v>
+        <v>308925</v>
       </c>
       <c r="F23">
-        <v>60000</v>
+        <v>61785</v>
+      </c>
+      <c r="G23">
+        <v>4000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
       </c>
       <c r="J23">
-        <v>1999</v>
+        <v>1963</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2027,6 +2294,9 @@
       <c r="R23" t="s">
         <v>32</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
       <c r="T23" t="s">
         <v>32</v>
       </c>
@@ -2037,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2054,31 +2324,40 @@
         <v>33</v>
       </c>
       <c r="E24">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="F24">
         <v>50000</v>
       </c>
+      <c r="G24">
+        <v>10650</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
       <c r="J24">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O24" t="s">
         <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2086,6 +2365,9 @@
       <c r="R24" t="s">
         <v>32</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
       <c r="T24" t="s">
         <v>32</v>
       </c>
@@ -2096,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2113,31 +2395,40 @@
         <v>33</v>
       </c>
       <c r="E25">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="F25">
-        <v>30000</v>
+        <v>50000</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>5900</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
       </c>
       <c r="J25">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2145,6 +2436,9 @@
       <c r="R25" t="s">
         <v>32</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
       <c r="T25" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2172,31 +2466,40 @@
         <v>33</v>
       </c>
       <c r="E26">
-        <v>165000</v>
+        <v>300000</v>
       </c>
       <c r="F26">
         <v>40000</v>
       </c>
+      <c r="G26">
+        <v>2500</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
       <c r="J26">
-        <v>1960</v>
+        <v>1996</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2204,6 +2507,9 @@
       <c r="R26" t="s">
         <v>32</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
       <c r="T26" t="s">
         <v>32</v>
       </c>
@@ -2214,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2231,43 +2537,46 @@
         <v>33</v>
       </c>
       <c r="E27">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="F27">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G27">
-        <v>6650</v>
+        <v>11420</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
       <c r="J27">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2282,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -2296,40 +2605,52 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>58650</v>
+        <v>25000</v>
+      </c>
+      <c r="G28">
+        <v>4349</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
       </c>
       <c r="J28">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>32</v>
@@ -2339,6 +2660,9 @@
       </c>
       <c r="V28">
         <v>0</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -2355,31 +2679,40 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>400000</v>
+        <v>420000</v>
       </c>
       <c r="F29">
-        <v>100000</v>
+        <v>25000</v>
+      </c>
+      <c r="G29">
+        <v>4500</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
       </c>
       <c r="J29">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="K29">
         <v>5</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2387,6 +2720,9 @@
       <c r="R29" t="s">
         <v>32</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29" t="s">
         <v>32</v>
       </c>
@@ -2397,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -2414,38 +2750,50 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>197400</v>
+        <v>185000</v>
       </c>
       <c r="F30">
-        <v>15000</v>
+        <v>30000</v>
+      </c>
+      <c r="G30">
+        <v>3250</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
       </c>
       <c r="J30">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R30" t="s">
         <v>32</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
       <c r="T30" t="s">
         <v>32</v>
       </c>
@@ -2456,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -2473,46 +2821,49 @@
         <v>33</v>
       </c>
       <c r="E31">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="F31">
-        <v>81000</v>
+        <v>80000</v>
       </c>
       <c r="G31">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
       </c>
       <c r="J31">
-        <v>1975</v>
+        <v>2006</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q31">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R31" t="s">
         <v>32</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T31" t="s">
         <v>32</v>
@@ -2524,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -2538,31 +2889,40 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F32">
-        <v>15000</v>
+        <v>120000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
       </c>
       <c r="J32">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
         <v>41</v>
@@ -2573,6 +2933,9 @@
       <c r="R32" t="s">
         <v>32</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
       <c r="T32" t="s">
         <v>32</v>
       </c>
@@ -2581,6 +2944,9 @@
       </c>
       <c r="V32">
         <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -2594,37 +2960,40 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="F33">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="G33">
-        <v>4492</v>
+        <v>6000</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
       <c r="J33">
-        <v>1961</v>
+        <v>1912</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
         <v>42</v>
@@ -2633,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2648,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -2662,31 +3031,40 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>225000</v>
+        <v>160000</v>
       </c>
       <c r="F34">
-        <v>57000</v>
+        <v>71000</v>
+      </c>
+      <c r="G34">
+        <v>38610</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
       </c>
       <c r="J34">
-        <v>1940</v>
+        <v>2004</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L34">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P34" t="s">
         <v>42</v>
@@ -2697,6 +3075,9 @@
       <c r="R34" t="s">
         <v>32</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
       <c r="T34" t="s">
         <v>32</v>
       </c>
@@ -2705,6 +3086,9 @@
       </c>
       <c r="V34">
         <v>0</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -2718,31 +3102,40 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="F35">
-        <v>50000</v>
+        <v>75000</v>
+      </c>
+      <c r="G35">
+        <v>4900</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
       </c>
       <c r="J35">
-        <v>1958</v>
+        <v>1925</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
         <v>42</v>
@@ -2753,6 +3146,9 @@
       <c r="R35" t="s">
         <v>32</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35" t="s">
         <v>32</v>
       </c>
@@ -2763,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -2780,25 +3176,34 @@
         <v>33</v>
       </c>
       <c r="E36">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F36">
-        <v>23000</v>
+        <v>25000</v>
+      </c>
+      <c r="G36">
+        <v>1200</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
       </c>
       <c r="J36">
-        <v>1948</v>
+        <v>2001</v>
       </c>
       <c r="K36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O36" t="s">
         <v>32</v>
@@ -2812,6 +3217,9 @@
       <c r="R36" t="s">
         <v>32</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
       <c r="T36" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -2836,31 +3244,40 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37">
-        <v>330000</v>
+        <v>327000</v>
       </c>
       <c r="F37">
         <v>30000</v>
       </c>
+      <c r="G37">
+        <v>6000</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
       <c r="J37">
-        <v>1981</v>
+        <v>1905</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -2871,6 +3288,9 @@
       <c r="R37" t="s">
         <v>32</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
       <c r="T37" t="s">
         <v>32</v>
       </c>
@@ -2881,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AD37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -2895,28 +3315,37 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F38">
-        <v>50000</v>
+        <v>46279</v>
+      </c>
+      <c r="G38">
+        <v>3000</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
       </c>
       <c r="J38">
-        <v>1950</v>
+        <v>1915</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O38" t="s">
         <v>32</v>
@@ -2928,7 +3357,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
       </c>
       <c r="T38" t="s">
         <v>32</v>
@@ -2940,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="AD38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -2954,31 +3386,40 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>343812</v>
+        <v>430000</v>
       </c>
       <c r="F39">
-        <v>72731</v>
+        <v>40000</v>
+      </c>
+      <c r="G39">
+        <v>4950</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>36</v>
       </c>
       <c r="J39">
-        <v>1900</v>
+        <v>1984</v>
       </c>
       <c r="K39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -2987,7 +3428,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
       </c>
       <c r="T39" t="s">
         <v>32</v>
@@ -2999,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -3013,28 +3457,37 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>15000</v>
+        <v>30000</v>
+      </c>
+      <c r="G40">
+        <v>6500</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
       </c>
       <c r="J40">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="K40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L40">
         <v>70</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O40" t="s">
         <v>32</v>
@@ -3048,6 +3501,9 @@
       <c r="R40" t="s">
         <v>32</v>
       </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
       <c r="T40" t="s">
         <v>32</v>
       </c>
@@ -3056,6 +3512,9 @@
       </c>
       <c r="V40">
         <v>0</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -3069,37 +3528,40 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>550000</v>
+        <v>170000</v>
       </c>
       <c r="F41">
-        <v>110000</v>
+        <v>15000</v>
       </c>
       <c r="G41">
-        <v>22695</v>
+        <v>6000</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
       <c r="J41">
-        <v>1900</v>
+        <v>1985</v>
       </c>
       <c r="K41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O41" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -3108,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3123,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -3137,28 +3599,37 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>200000</v>
+        <v>131000</v>
       </c>
       <c r="F42">
-        <v>15000</v>
+        <v>25000</v>
+      </c>
+      <c r="G42">
+        <v>5200</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
       </c>
       <c r="J42">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O42" t="s">
         <v>32</v>
@@ -3172,6 +3643,9 @@
       <c r="R42" t="s">
         <v>32</v>
       </c>
+      <c r="S42">
+        <v>2000</v>
+      </c>
       <c r="T42" t="s">
         <v>32</v>
       </c>
@@ -3182,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -3196,28 +3670,37 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+      <c r="G43">
+        <v>5600</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
       </c>
       <c r="J43">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O43" t="s">
         <v>32</v>
@@ -3231,6 +3714,9 @@
       <c r="R43" t="s">
         <v>32</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
       <c r="T43" t="s">
         <v>32</v>
       </c>
@@ -3239,6 +3725,9 @@
       </c>
       <c r="V43">
         <v>0</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -3252,31 +3741,40 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="F44">
-        <v>30000</v>
+        <v>75000</v>
+      </c>
+      <c r="G44">
+        <v>3900</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
       </c>
       <c r="J44">
-        <v>2003</v>
+        <v>1960</v>
       </c>
       <c r="K44">
         <v>12</v>
       </c>
       <c r="L44">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P44" t="s">
         <v>42</v>
@@ -3287,6 +3785,9 @@
       <c r="R44" t="s">
         <v>32</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
       <c r="T44" t="s">
         <v>32</v>
       </c>
@@ -3295,6 +3796,9 @@
       </c>
       <c r="V44">
         <v>0</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -3308,37 +3812,40 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>550000</v>
+        <v>242429</v>
       </c>
       <c r="F45">
-        <v>100000</v>
+        <v>40640</v>
       </c>
       <c r="G45">
-        <v>9820</v>
+        <v>2945</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
       <c r="J45">
-        <v>1890</v>
+        <v>1902</v>
       </c>
       <c r="K45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P45" t="s">
         <v>42</v>
@@ -3361,6 +3868,9 @@
       <c r="V45">
         <v>0</v>
       </c>
+      <c r="AD45" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" t="s">
@@ -3376,19 +3886,34 @@
         <v>34</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="G46">
+        <v>3700</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46">
+        <v>1938</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O46" t="s">
         <v>32</v>
@@ -3396,8 +3921,26 @@
       <c r="P46" t="s">
         <v>42</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -3411,31 +3954,40 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E47">
-        <v>231000</v>
+        <v>300000</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>27000</v>
+      </c>
+      <c r="G47">
+        <v>20000</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>36</v>
       </c>
       <c r="J47">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="K47">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P47" t="s">
         <v>42</v>
@@ -3446,6 +3998,9 @@
       <c r="R47" t="s">
         <v>32</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
       <c r="T47" t="s">
         <v>32</v>
       </c>
@@ -3454,6 +4009,9 @@
       </c>
       <c r="V47">
         <v>0</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -3467,31 +4025,40 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>30000</v>
+        <v>50000</v>
+      </c>
+      <c r="G48">
+        <v>5800</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
       </c>
       <c r="J48">
-        <v>1960</v>
+        <v>1919</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="M48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P48" t="s">
         <v>42</v>
@@ -3500,7 +4067,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
       </c>
       <c r="T48" t="s">
         <v>32</v>
@@ -3512,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -3526,34 +4096,37 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>450000</v>
+        <v>650000</v>
       </c>
       <c r="F49">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="G49">
-        <v>18545</v>
+        <v>34999</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
       <c r="J49">
-        <v>1997</v>
+        <v>1930</v>
       </c>
       <c r="K49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O49" t="s">
         <v>32</v>
@@ -3565,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3580,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AD49" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -3594,37 +4167,40 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>625000</v>
+        <v>220000</v>
       </c>
       <c r="F50">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G50">
-        <v>2115</v>
+        <v>4928</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50" t="s">
+        <v>36</v>
+      </c>
       <c r="J50">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L50">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
         <v>42</v>
@@ -3633,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3648,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="AD50" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -3662,37 +4238,40 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="F51">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G51">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
       <c r="J51">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P51" t="s">
         <v>42</v>
@@ -3701,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3716,125 +4295,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52">
-        <v>150000</v>
-      </c>
-      <c r="F52">
-        <v>15000</v>
-      </c>
-      <c r="J52">
-        <v>1975</v>
-      </c>
-      <c r="K52">
-        <v>12</v>
-      </c>
-      <c r="L52">
-        <v>51</v>
-      </c>
-      <c r="M52" t="s">
-        <v>37</v>
-      </c>
-      <c r="N52" t="s">
-        <v>37</v>
-      </c>
-      <c r="O52" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" t="s">
-        <v>32</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53">
-        <v>230000</v>
-      </c>
-      <c r="F53">
-        <v>15000</v>
-      </c>
-      <c r="J53">
-        <v>1962</v>
-      </c>
-      <c r="K53">
-        <v>7</v>
-      </c>
-      <c r="L53">
-        <v>60</v>
-      </c>
-      <c r="M53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O53" t="s">
-        <v>39</v>
-      </c>
-      <c r="P53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>39</v>
-      </c>
-      <c r="T53" t="s">
-        <v>32</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
